--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3286.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3286.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8932781874343713</v>
+        <v>1.276082992553711</v>
       </c>
       <c r="B1">
-        <v>2.194794294347356</v>
+        <v>3.283247232437134</v>
       </c>
       <c r="C1">
-        <v>4.153435038710516</v>
+        <v>2.538605928421021</v>
       </c>
       <c r="D1">
-        <v>2.927941247733569</v>
+        <v>1.325958609580994</v>
       </c>
       <c r="E1">
-        <v>1.297823993479263</v>
+        <v>0.9827471375465393</v>
       </c>
     </row>
   </sheetData>
